--- a/Materials/Data_OTPR.xlsx
+++ b/Materials/Data_OTPR.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="3264" windowHeight="23960"/>
+    <workbookView windowWidth="29100" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -71,9 +71,6 @@
     </r>
   </si>
   <si>
-    <t>Prompt_completion</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Please repeat the fragment and complete it into a full sentence: Although Pelcra was sick …</t>
-  </si>
-  <si>
-    <t>Although Pelcra was sick,</t>
   </si>
   <si>
     <r>
@@ -116,9 +110,6 @@
     </r>
   </si>
   <si>
-    <t>Although Pelcrad was sick,</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -129,9 +120,6 @@
       </rPr>
       <t>Please repeat the fragment and complete it into a full sentence: Because Steba was very careless …</t>
     </r>
-  </si>
-  <si>
-    <t>Because Steba was very careless,</t>
   </si>
   <si>
     <r>
@@ -146,19 +134,10 @@
     </r>
   </si>
   <si>
-    <t>Because Steban was very careless,</t>
-  </si>
-  <si>
     <t>Please repeat the fragment and complete it into a full sentence: When Hispa was going to work …</t>
   </si>
   <si>
-    <t>When Hispa was going to work,</t>
-  </si>
-  <si>
     <t>Please repeat the fragment and complete it into a full sentence: When Hispat was going to work …</t>
-  </si>
-  <si>
-    <t>When Hispat was going to work,</t>
   </si>
   <si>
     <r>
@@ -173,9 +152,6 @@
     </r>
   </si>
   <si>
-    <t>Before Bontee went to college,</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -186,9 +162,6 @@
       </rPr>
       <t>Please repeat the fragment and complete it into a full sentence: Before Bonteed went to college …</t>
     </r>
-  </si>
-  <si>
-    <t>Before Bonteed went to college,</t>
   </si>
 </sst>
 </file>
@@ -1102,6 +1075,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1354,21 +1334,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.53846153846154" customWidth="1"/>
     <col min="2" max="2" width="13.1442307692308" customWidth="1"/>
     <col min="3" max="3" width="23.3942307692308" customWidth="1"/>
-    <col min="4" max="5" width="51.7307692307692" customWidth="1"/>
+    <col min="4" max="4" width="51.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:5">
+    <row r="1" ht="18" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,11 +1361,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" ht="36" spans="1:5">
+    <row r="2" ht="36" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1393,16 +1370,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" ht="36" spans="1:5">
+    <row r="3" ht="36" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1410,16 +1384,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="36" spans="1:5">
+    <row r="4" ht="36" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1427,16 +1398,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" ht="36" spans="1:5">
+    <row r="5" ht="36" spans="1:4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1444,16 +1412,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" ht="36" spans="1:5">
+    <row r="6" ht="36" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1461,16 +1426,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="7" ht="36" spans="1:5">
+    <row r="7" ht="36" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1478,16 +1440,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" ht="36" spans="1:5">
+    <row r="8" ht="36" spans="1:4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1495,16 +1454,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" ht="36" spans="1:5">
+    <row r="9" ht="36" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1512,13 +1468,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
